--- a/biology/Médecine/Muscle_moyen_glutéal/Muscle_moyen_glutéal.xlsx
+++ b/biology/Médecine/Muscle_moyen_glutéal/Muscle_moyen_glutéal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_moyen_glut%C3%A9al</t>
+          <t>Muscle_moyen_glutéal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle moyen glutéal (anciennement muscle moyen fessier) est un muscle du membre inférieur. Il fait partie des muscles fessiers superficiels avec les muscles grand glutéal, petit glutéal et tenseur du fascia lata. Il est situé entre le muscle grand glutéal et petit glutéal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_moyen_glut%C3%A9al</t>
+          <t>Muscle_moyen_glutéal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle moyen glutéal est de forme triangulaire reliant l'os coxal au fémur à son sommet.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_moyen_glut%C3%A9al</t>
+          <t>Muscle_moyen_glutéal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le muscle moyen glutéal s'attache :
 sur les trois quarts antérieurs de la lèvre latérale de la crête iliaque,
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_moyen_glut%C3%A9al</t>
+          <t>Muscle_moyen_glutéal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle moyen glutéal est épais et pyramidal à base supérieure. 
 Les fibres convergent en éventail vers le bas. 
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_moyen_glut%C3%A9al</t>
+          <t>Muscle_moyen_glutéal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle moyen glutéal s’insère sur la partie haute de la face latérale du grand trochanter par des fibres tendineuses courtes et denses en continuité avec l'insertion du muscle vaste latéral.
 </t>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_moyen_glut%C3%A9al</t>
+          <t>Muscle_moyen_glutéal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle moyen glutéal est innervé par le nerf glutéal supérieur.
 </t>
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_moyen_glut%C3%A9al</t>
+          <t>Muscle_moyen_glutéal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +693,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle moyen glutéal est vascularisé par l'artère glutéale supérieure
 </t>
@@ -684,7 +708,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muscle_moyen_glut%C3%A9al</t>
+          <t>Muscle_moyen_glutéal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -702,7 +726,9 @@
           <t>Actions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle moyen glutéal est:
 stabilisateur du bassin,
@@ -722,7 +748,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Muscle_moyen_glut%C3%A9al</t>
+          <t>Muscle_moyen_glutéal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -740,7 +766,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa paralysie ou lésion provoque une démarche nommée boiterie de Trendelenburg, qui se traduit par un déhanchement ou un abaissement de la hanche controlatérale (opposée) au muscle atteint lors de la phase unipodale de la marche.
 </t>
@@ -753,7 +781,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Muscle_moyen_glut%C3%A9al</t>
+          <t>Muscle_moyen_glutéal</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -771,9 +799,11 @@
           <t>Culture physique</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le moyen glutéal intervient comme muscle synergique dans l'exercice du soulevé de terre[1]. Il est également synergique dans le mouvement de flexion sur jambes (squat)[2].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le moyen glutéal intervient comme muscle synergique dans l'exercice du soulevé de terre. Il est également synergique dans le mouvement de flexion sur jambes (squat).
 </t>
         </is>
       </c>
